--- a/modul/example.xlsx
+++ b/modul/example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="82">
   <si>
     <t>NIS</t>
   </si>
@@ -46,9 +46,6 @@
     <t>KELAS</t>
   </si>
   <si>
-    <t>RFID</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -263,102 +260,6 @@
   </si>
   <si>
     <t>X IPA 1</t>
-  </si>
-  <si>
-    <t>rfid01</t>
-  </si>
-  <si>
-    <t>rfid02</t>
-  </si>
-  <si>
-    <t>rfid03</t>
-  </si>
-  <si>
-    <t>rfid04</t>
-  </si>
-  <si>
-    <t>rfid05</t>
-  </si>
-  <si>
-    <t>rfid06</t>
-  </si>
-  <si>
-    <t>rfid07</t>
-  </si>
-  <si>
-    <t>rfid08</t>
-  </si>
-  <si>
-    <t>rfid09</t>
-  </si>
-  <si>
-    <t>rfid10</t>
-  </si>
-  <si>
-    <t>rfid11</t>
-  </si>
-  <si>
-    <t>rfid12</t>
-  </si>
-  <si>
-    <t>rfid13</t>
-  </si>
-  <si>
-    <t>rfid14</t>
-  </si>
-  <si>
-    <t>rfid15</t>
-  </si>
-  <si>
-    <t>rfid16</t>
-  </si>
-  <si>
-    <t>rfid17</t>
-  </si>
-  <si>
-    <t>rfid18</t>
-  </si>
-  <si>
-    <t>rfid19</t>
-  </si>
-  <si>
-    <t>rfid20</t>
-  </si>
-  <si>
-    <t>rfid21</t>
-  </si>
-  <si>
-    <t>rfid22</t>
-  </si>
-  <si>
-    <t>rfid23</t>
-  </si>
-  <si>
-    <t>rfid24</t>
-  </si>
-  <si>
-    <t>rfid25</t>
-  </si>
-  <si>
-    <t>rfid26</t>
-  </si>
-  <si>
-    <t>rfid27</t>
-  </si>
-  <si>
-    <t>rfid28</t>
-  </si>
-  <si>
-    <t>rfid29</t>
-  </si>
-  <si>
-    <t>rfid30</t>
-  </si>
-  <si>
-    <t>rfid31</t>
-  </si>
-  <si>
-    <t>rfid32</t>
   </si>
 </sst>
 </file>
@@ -441,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,6 +365,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4437,8 +4339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4457,7 +4359,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -4489,9 +4391,7 @@
       <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1">
@@ -4501,35 +4401,33 @@
         <v>4531</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8">
         <v>37316</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1">
@@ -4539,35 +4437,33 @@
         <v>4534</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="8">
         <v>37317</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1">
@@ -4577,35 +4473,33 @@
         <v>4546</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="8">
         <v>37318</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>85</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="1">
@@ -4615,35 +4509,33 @@
         <v>4569</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="8">
         <v>37319</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="16.5">
       <c r="A6" s="1">
@@ -4653,35 +4545,33 @@
         <v>4608</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="8">
         <v>37320</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" s="1">
@@ -4691,35 +4581,33 @@
         <v>4622</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="8">
         <v>37321</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="16.5">
       <c r="A8" s="1">
@@ -4729,35 +4617,33 @@
         <v>4626</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="8">
         <v>37322</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="16.5">
       <c r="A9" s="1">
@@ -4767,35 +4653,33 @@
         <v>4633</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="8">
         <v>37323</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>90</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="16.5">
       <c r="A10" s="1">
@@ -4805,35 +4689,33 @@
         <v>4644</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="8">
         <v>37324</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="16.5">
       <c r="A11" s="1">
@@ -4843,35 +4725,33 @@
         <v>4687</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="8">
         <v>37325</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="16.5">
       <c r="A12" s="1">
@@ -4881,35 +4761,33 @@
         <v>4697</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="8">
         <v>37326</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>93</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="16.5">
       <c r="A13" s="1">
@@ -4919,35 +4797,33 @@
         <v>4698</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="8">
         <v>37327</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="16.5">
       <c r="A14" s="1">
@@ -4957,35 +4833,33 @@
         <v>4717</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="8">
         <v>37328</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>95</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="16.5">
       <c r="A15" s="1">
@@ -4995,35 +4869,33 @@
         <v>4721</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="8">
         <v>37329</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>96</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="16.5">
       <c r="A16" s="1">
@@ -5033,35 +4905,33 @@
         <v>4730</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="8">
         <v>37330</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>97</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
       <c r="A17" s="1">
@@ -5071,35 +4941,33 @@
         <v>4738</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="8">
         <v>37331</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>98</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="16.5">
       <c r="A18" s="1">
@@ -5109,35 +4977,33 @@
         <v>4741</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="8">
         <v>37332</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="16.5">
       <c r="A19" s="1">
@@ -5147,35 +5013,33 @@
         <v>4744</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="8">
         <v>37333</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>100</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="16.5">
       <c r="A20" s="1">
@@ -5185,35 +5049,33 @@
         <v>4746</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="8">
         <v>37334</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="16.5">
       <c r="A21" s="1">
@@ -5223,35 +5085,33 @@
         <v>4783</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="8">
         <v>37335</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" ht="16.5">
       <c r="A22" s="1">
@@ -5261,35 +5121,33 @@
         <v>4796</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="8">
         <v>37336</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" ht="16.5">
       <c r="A23" s="1">
@@ -5299,35 +5157,33 @@
         <v>4805</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="8">
         <v>37337</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="16.5">
       <c r="A24" s="1">
@@ -5337,35 +5193,33 @@
         <v>4815</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="8">
         <v>37338</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" ht="16.5">
       <c r="A25" s="1">
@@ -5375,35 +5229,33 @@
         <v>4821</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="8">
         <v>37339</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" ht="16.5">
       <c r="A26" s="1">
@@ -5413,35 +5265,33 @@
         <v>4831</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="8">
         <v>37340</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" ht="16.5">
       <c r="A27" s="1">
@@ -5451,35 +5301,33 @@
         <v>4857</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="8">
         <v>37341</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" ht="16.5">
       <c r="A28" s="1">
@@ -5489,35 +5337,33 @@
         <v>4859</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="8">
         <v>37342</v>
       </c>
       <c r="G28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="16.5">
       <c r="A29" s="1">
@@ -5527,35 +5373,33 @@
         <v>4861</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="8">
         <v>37343</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="16.5">
       <c r="A30" s="1">
@@ -5565,35 +5409,33 @@
         <v>4885</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" s="8">
         <v>37344</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="16.5">
       <c r="A31" s="1">
@@ -5603,35 +5445,33 @@
         <v>4888</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="8">
         <v>37345</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="16.5">
       <c r="A32" s="1">
@@ -5641,35 +5481,33 @@
         <v>4890</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="8">
         <v>37346</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="16.5">
       <c r="A33" s="1">
@@ -5679,35 +5517,33 @@
         <v>4897</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="F33" s="8">
         <v>37347</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12">
       <c r="K34" s="9"/>
